--- a/trade_runs/config/TradeRun0008.xlsx
+++ b/trade_runs/config/TradeRun0008.xlsx
@@ -1196,7 +1196,7 @@
     <t>Bitfinex:DASHUSD</t>
   </si>
   <si>
-    <t>2019/07/03 - 13:15</t>
+    <t>2019/07/03 - 13:45</t>
   </si>
 </sst>
 </file>
